--- a/converting_excel_to_psml/MoviesData.xlsx
+++ b/converting_excel_to_psml/MoviesData.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\usernas.ad.allette.com.au\users$\ccabral\Desktop\Tutorial\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="23250" windowHeight="5790"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -133,11 +128,11 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -410,7 +405,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -421,12 +416,13 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.7109375" customWidth="1"/>
     <col min="7" max="7" width="85.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -434,7 +430,7 @@
       <c r="A1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C1" t="s">
@@ -457,7 +453,7 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="3">
         <v>1977</v>
       </c>
       <c r="C2" t="s">
@@ -472,7 +468,7 @@
       <c r="F2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -480,8 +476,8 @@
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1">
-        <v>31100</v>
+      <c r="B3" s="3">
+        <v>1985</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -492,7 +488,7 @@
       <c r="E3" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -500,8 +496,8 @@
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="1">
-        <v>15097</v>
+      <c r="B4" s="3">
+        <v>1941</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -512,12 +508,12 @@
       <c r="E4" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D5" s="2"/>
+      <c r="D5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
